--- a/src/test/resources/ORFiles/ResponsiveED 1.xlsx
+++ b/src/test/resources/ORFiles/ResponsiveED 1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2440" windowWidth="12150" windowHeight="6230" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2440" windowWidth="12500" windowHeight="6230" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
   <si>
     <t>UserNames</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t>……..</t>
+  </si>
+  <si>
+    <t>Suraj</t>
+  </si>
+  <si>
+    <t>19BK5A03</t>
   </si>
 </sst>
 </file>
@@ -720,7 +726,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -774,7 +780,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -972,16 +978,16 @@
     </row>
     <row r="10" spans="1:12" ht="16" thickBot="1">
       <c r="A10" s="16" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="17">
-        <v>8790563326</v>
+        <v>8790563333</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>42</v>

--- a/src/test/resources/ORFiles/ResponsiveED 1.xlsx
+++ b/src/test/resources/ORFiles/ResponsiveED 1.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
   <si>
     <t>UserNames</t>
   </si>
@@ -179,10 +179,13 @@
     <t>……..</t>
   </si>
   <si>
-    <t>Suraj</t>
-  </si>
-  <si>
-    <t>19BK5A03</t>
+    <t>Krishna</t>
+  </si>
+  <si>
+    <t>krishna@gmail.com</t>
+  </si>
+  <si>
+    <t>19B</t>
   </si>
 </sst>
 </file>
@@ -398,7 +401,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -419,6 +422,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -726,7 +730,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -780,7 +784,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -980,14 +984,14 @@
       <c r="A10" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>38</v>
+      <c r="B10" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="C10" s="17">
-        <v>8790563333</v>
+        <v>8791563333</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>42</v>
@@ -1108,6 +1112,7 @@
   <hyperlinks>
     <hyperlink ref="B14" r:id="rId1"/>
     <hyperlink ref="B16" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
